--- a/releaf-i18n_database/misc/translations.xlsx
+++ b/releaf-i18n_database/misc/translations.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="240" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="2600" yWindow="440" windowWidth="25600" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="localization" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,317 +19,317 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="265">
   <si>
     <t/>
   </si>
   <si>
+    <t>lv</t>
+  </si>
+  <si>
     <t>en</t>
   </si>
   <si>
-    <t>lv</t>
-  </si>
-  <si>
     <t>activerecord.attributes.active</t>
   </si>
   <si>
+    <t>Aktīvs</t>
+  </si>
+  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>Aktīvs</t>
-  </si>
-  <si>
     <t>activerecord.attributes.email</t>
   </si>
   <si>
+    <t>E-pasts</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>E-pasts</t>
-  </si>
-  <si>
     <t>activerecord.attributes.item_position</t>
   </si>
   <si>
+    <t>Secība</t>
+  </si>
+  <si>
     <t>Position</t>
   </si>
   <si>
-    <t>Secība</t>
-  </si>
-  <si>
     <t>activerecord.attributes.locale</t>
   </si>
   <si>
+    <t>Valoda</t>
+  </si>
+  <si>
     <t>Locale</t>
   </si>
   <si>
-    <t>Valoda</t>
-  </si>
-  <si>
     <t>activerecord.attributes.name</t>
   </si>
   <si>
+    <t>Vārds</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Vārds</t>
-  </si>
-  <si>
     <t>activerecord.attributes.node.content_type</t>
   </si>
   <si>
+    <t>Satura veids</t>
+  </si>
+  <si>
     <t>Content type</t>
   </si>
   <si>
-    <t>Satura veids</t>
-  </si>
-  <si>
     <t>activerecord.attributes.node.menu</t>
   </si>
   <si>
+    <t>Izvēlne</t>
+  </si>
+  <si>
     <t>Menu</t>
   </si>
   <si>
-    <t>Izvēlne</t>
-  </si>
-  <si>
     <t>activerecord.attributes.node.name</t>
   </si>
   <si>
+    <t>Nosaukums</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Nosaukums</t>
-  </si>
-  <si>
     <t>activerecord.attributes.password</t>
   </si>
   <si>
+    <t>Parole</t>
+  </si>
+  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Parole</t>
-  </si>
-  <si>
     <t>activerecord.attributes.password_confirmation</t>
   </si>
   <si>
+    <t>Parole (atkārtot)</t>
+  </si>
+  <si>
     <t>Password (repeat)</t>
   </si>
   <si>
-    <t>Parole (atkārtot)</t>
-  </si>
-  <si>
     <t>activerecord.attributes.permissions</t>
   </si>
   <si>
+    <t>Tiesības</t>
+  </si>
+  <si>
     <t>Permissions</t>
   </si>
   <si>
-    <t>Tiesības</t>
-  </si>
-  <si>
     <t>activerecord.attributes.releaf/i18n_database/i18n_entry.key</t>
   </si>
   <si>
+    <t>Tulkojums</t>
+  </si>
+  <si>
     <t>Translations</t>
   </si>
   <si>
-    <t>Tulkojums</t>
-  </si>
-  <si>
     <t>activerecord.attributes.releaf/permissions/role.default_controller</t>
   </si>
   <si>
+    <t>Noklusētā sadaļa</t>
+  </si>
+  <si>
     <t>Default controller</t>
   </si>
   <si>
-    <t>Noklusētā sadaļa</t>
-  </si>
-  <si>
     <t>activerecord.attributes.releaf/permissions/user.role</t>
   </si>
   <si>
+    <t>Loma</t>
+  </si>
+  <si>
     <t>Role</t>
   </si>
   <si>
-    <t>Loma</t>
-  </si>
-  <si>
     <t>activerecord.attributes.releaf/settings.updated_at</t>
   </si>
   <si>
+    <t>Pēdējoreiz atjaunots</t>
+  </si>
+  <si>
     <t>Last updated at</t>
   </si>
   <si>
-    <t>Pēdējoreiz atjaunots</t>
-  </si>
-  <si>
     <t>activerecord.attributes.releaf/settings.value</t>
   </si>
   <si>
+    <t>Vērtība</t>
+  </si>
+  <si>
     <t>Key</t>
   </si>
   <si>
-    <t>Vērtība</t>
-  </si>
-  <si>
     <t>activerecord.attributes.releaf/settings.var</t>
   </si>
   <si>
+    <t>Mainīgais</t>
+  </si>
+  <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Mainīgais</t>
-  </si>
-  <si>
     <t>activerecord.attributes.slug</t>
   </si>
   <si>
+    <t>Saite</t>
+  </si>
+  <si>
     <t>Slug</t>
   </si>
   <si>
-    <t>Saite</t>
-  </si>
-  <si>
     <t>activerecord.attributes.surname</t>
   </si>
   <si>
+    <t>Uzvārds</t>
+  </si>
+  <si>
     <t>Surname</t>
   </si>
   <si>
-    <t>Uzvārds</t>
-  </si>
-  <si>
     <t>activerecord.attributes.text</t>
   </si>
   <si>
+    <t>Saturs</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
-    <t>Saturs</t>
-  </si>
-  <si>
     <t>activerecord.attributes.title</t>
   </si>
   <si>
     <t>activerecord.attributes.type</t>
   </si>
   <si>
+    <t>Tips</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Tips</t>
-  </si>
-  <si>
     <t>activerecord.attributes.users</t>
   </si>
   <si>
+    <t>Lietotāji</t>
+  </si>
+  <si>
     <t>Users</t>
   </si>
   <si>
-    <t>Lietotāji</t>
-  </si>
-  <si>
     <t>admin.Add item</t>
   </si>
   <si>
+    <t>Pievienot jaunu</t>
+  </si>
+  <si>
     <t>Add item</t>
   </si>
   <si>
-    <t>Pievienot jaunu</t>
-  </si>
-  <si>
     <t>admin.admin_nodes.Add child</t>
   </si>
   <si>
+    <t>Jauna apakšsadaļa</t>
+  </si>
+  <si>
     <t>Add child</t>
   </si>
   <si>
-    <t>Jauna apakšsadaļa</t>
-  </si>
-  <si>
     <t>admin.admin_nodes.After</t>
   </si>
   <si>
+    <t>Pēc</t>
+  </si>
+  <si>
     <t>After</t>
   </si>
   <si>
-    <t>Pēc</t>
-  </si>
-  <si>
     <t>admin.admin_nodes.First</t>
   </si>
   <si>
+    <t>Pirmais</t>
+  </si>
+  <si>
     <t>First</t>
   </si>
   <si>
-    <t>Pirmais</t>
-  </si>
-  <si>
     <t>admin.admin_nodes.Select content type of new node</t>
   </si>
   <si>
+    <t>Izvēlaties satura veidu</t>
+  </si>
+  <si>
     <t>Select content type of new node</t>
   </si>
   <si>
-    <t>Izvēlaties satura veidu</t>
-  </si>
-  <si>
     <t>admin.admin_nodes.Suggest slug</t>
   </si>
   <si>
+    <t>Ieteikt saiti</t>
+  </si>
+  <si>
     <t>Suggest slug</t>
   </si>
   <si>
-    <t>Ieteikt saiti</t>
-  </si>
-  <si>
     <t>admin.All resources</t>
   </si>
   <si>
+    <t>Visi ieraksti</t>
+  </si>
+  <si>
     <t>All resources</t>
   </si>
   <si>
-    <t>Visi ieraksti</t>
-  </si>
-  <si>
     <t>admin.Back to list</t>
   </si>
   <si>
+    <t>Atpakaļ uz sarakstu</t>
+  </si>
+  <si>
     <t>Back to list</t>
   </si>
   <si>
-    <t>Atpakaļ uz sarakstu</t>
-  </si>
-  <si>
     <t>admin.breadcrumbs.New record</t>
   </si>
   <si>
+    <t>Jauns ieraksts</t>
+  </si>
+  <si>
     <t>New record</t>
   </si>
   <si>
-    <t>Jauns ieraksts</t>
-  </si>
-  <si>
     <t>admin.Cancel</t>
   </si>
   <si>
+    <t>Atlikt</t>
+  </si>
+  <si>
     <t>Cancel</t>
   </si>
   <si>
-    <t>Atlikt</t>
-  </si>
-  <si>
     <t>admin.Close</t>
   </si>
   <si>
+    <t>Aizvērt</t>
+  </si>
+  <si>
     <t>Close</t>
   </si>
   <si>
-    <t>Aizvērt</t>
-  </si>
-  <si>
     <t>admin.Collapse</t>
   </si>
   <si>
@@ -339,24 +339,24 @@
     <t>admin.Confirm deletion</t>
   </si>
   <si>
+    <t>Dzēšanas apstiprinājums</t>
+  </si>
+  <si>
     <t>Confirm deletion</t>
   </si>
   <si>
-    <t>Dzēšanas apstiprinājums</t>
-  </si>
-  <si>
-    <t>admin.controllers.admin/nodes</t>
+    <t>admin.controllers.permissions</t>
+  </si>
+  <si>
+    <t>admin.controllers.releaf/content/nodes</t>
+  </si>
+  <si>
+    <t>Satura koks</t>
   </si>
   <si>
     <t>Content tree</t>
   </si>
   <si>
-    <t>Satura koks</t>
-  </si>
-  <si>
-    <t>admin.controllers.permissions</t>
-  </si>
-  <si>
     <t>admin.controllers.releaf/i18n_database/translations</t>
   </si>
   <si>
@@ -366,162 +366,162 @@
     <t>admin.controllers.releaf/permissions/profile</t>
   </si>
   <si>
+    <t>Profils</t>
+  </si>
+  <si>
     <t>Profile</t>
   </si>
   <si>
-    <t>Profils</t>
-  </si>
-  <si>
     <t>admin.controllers.releaf/permissions/roles</t>
   </si>
   <si>
+    <t>Lomas</t>
+  </si>
+  <si>
     <t>Roles</t>
   </si>
   <si>
-    <t>Lomas</t>
-  </si>
-  <si>
     <t>admin.controllers.releaf/permissions/users</t>
   </si>
   <si>
     <t>admin.controllers.releaf/settings</t>
   </si>
   <si>
+    <t>Uzstādījumi</t>
+  </si>
+  <si>
     <t>Settings</t>
   </si>
   <si>
-    <t>Uzstādījumi</t>
-  </si>
-  <si>
     <t>admin.controllers.translations</t>
   </si>
   <si>
     <t>admin.Copy</t>
   </si>
   <si>
+    <t>Kopēt</t>
+  </si>
+  <si>
     <t>Copy</t>
   </si>
   <si>
-    <t>Kopēt</t>
-  </si>
-  <si>
     <t>admin.Copy node '%{node_name}' to</t>
   </si>
   <si>
+    <t>Kopēt '%{node_name}' uz</t>
+  </si>
+  <si>
     <t>Copy node '%{node_name}' to</t>
   </si>
   <si>
-    <t>Kopēt '%{node_name}' uz</t>
-  </si>
-  <si>
     <t>admin.Create new resource</t>
   </si>
   <si>
+    <t>Izveidot jaunu</t>
+  </si>
+  <si>
     <t>Create new resource</t>
   </si>
   <si>
-    <t>Izveidot jaunu</t>
-  </si>
-  <si>
     <t>admin.Delete</t>
   </si>
   <si>
+    <t>Dzēst</t>
+  </si>
+  <si>
     <t>Delete</t>
   </si>
   <si>
-    <t>Dzēst</t>
-  </si>
-  <si>
     <t>admin.Deletion of %{resource} restricted due to existing relations:</t>
   </si>
   <si>
+    <t>%{resource} dzēšana nav iespējama dēļ šādām saistībām:</t>
+  </si>
+  <si>
     <t>Deletion of %{resource} restricted due to existing relations:</t>
   </si>
   <si>
-    <t>%{resource} dzēšana nav iespējama dēļ šādām saistībām:</t>
-  </si>
-  <si>
     <t>admin.Deletion refused</t>
   </si>
   <si>
+    <t>Dzēšana nav iespējama</t>
+  </si>
+  <si>
     <t>Deletion refused</t>
   </si>
   <si>
-    <t>Dzēšana nav iespējama</t>
-  </si>
-  <si>
     <t>admin.Do you want to delete the following object?</t>
   </si>
   <si>
+    <t>Vai tiešām vēlies dzēst šo ierakstu?</t>
+  </si>
+  <si>
     <t>Do you want to delete the following object?</t>
   </si>
   <si>
-    <t>Vai tiešām vēlies dzēst šo ierakstu?</t>
-  </si>
-  <si>
     <t>admin.Download</t>
   </si>
   <si>
+    <t>Lejuplādēt</t>
+  </si>
+  <si>
     <t>Download</t>
   </si>
   <si>
-    <t>Lejuplādēt</t>
-  </si>
-  <si>
     <t>admin.Edit</t>
   </si>
   <si>
+    <t>Rediģēt</t>
+  </si>
+  <si>
     <t>Edit</t>
   </si>
   <si>
-    <t>Rediģēt</t>
-  </si>
-  <si>
     <t>admin.Expand</t>
   </si>
   <si>
+    <t>Atvērt</t>
+  </si>
+  <si>
     <t>Expand</t>
   </si>
   <si>
-    <t>Atvērt</t>
-  </si>
-  <si>
     <t>admin.Move</t>
   </si>
   <si>
+    <t>Pārvietot</t>
+  </si>
+  <si>
     <t>Move</t>
   </si>
   <si>
-    <t>Pārvietot</t>
-  </si>
-  <si>
     <t>admin.No</t>
   </si>
   <si>
+    <t>Nē</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Nē</t>
-  </si>
-  <si>
     <t>admin.Nothing found</t>
   </si>
   <si>
+    <t>Nekas netika atrasts</t>
+  </si>
+  <si>
     <t>Nothing found</t>
   </si>
   <si>
-    <t>Nekas netika atrasts</t>
-  </si>
-  <si>
     <t>admin.Ok</t>
   </si>
   <si>
+    <t>Labi</t>
+  </si>
+  <si>
     <t>Ok</t>
   </si>
   <si>
-    <t>Labi</t>
-  </si>
-  <si>
     <t>admin.releaf_i18n_database_translations.edit translations</t>
   </si>
   <si>
@@ -531,81 +531,81 @@
     <t>admin.releaf_i18n_database_translations.export</t>
   </si>
   <si>
+    <t>Eksportēt</t>
+  </si>
+  <si>
     <t>Export</t>
   </si>
   <si>
-    <t>Eksportēt</t>
-  </si>
-  <si>
     <t>admin.releaf_i18n_database_translations.import</t>
   </si>
   <si>
+    <t>Importēt</t>
+  </si>
+  <si>
     <t>Import</t>
   </si>
   <si>
-    <t>Importēt</t>
-  </si>
-  <si>
     <t>admin.releaf_i18n_database_translations.Only blank</t>
   </si>
   <si>
+    <t>Tikai neaizpildītie tulkojumi</t>
+  </si>
+  <si>
     <t>Only blank translations</t>
   </si>
   <si>
-    <t>Tikai neaizpildītie tulkojumi</t>
-  </si>
-  <si>
     <t>admin.releaf_i18n_database_translations.Remove item</t>
   </si>
   <si>
+    <t>Noņemt tulkojumu</t>
+  </si>
+  <si>
     <t>Remove translation</t>
   </si>
   <si>
-    <t>Noņemt tulkojumu</t>
-  </si>
-  <si>
     <t>admin.releaf_translations.Add item</t>
   </si>
   <si>
+    <t>Pievienot tulkojumu</t>
+  </si>
+  <si>
     <t>Add translation</t>
   </si>
   <si>
-    <t>Pievienot tulkojumu</t>
-  </si>
-  <si>
     <t>admin.Remove</t>
   </si>
   <si>
+    <t>Noņemt</t>
+  </si>
+  <si>
     <t>Remove</t>
   </si>
   <si>
-    <t>Noņemt</t>
-  </si>
-  <si>
     <t>admin.Remove item</t>
   </si>
   <si>
     <t>admin.Resources found.few</t>
   </si>
   <si>
+    <t>%{count} ieraksti</t>
+  </si>
+  <si>
     <t>%{count} records</t>
   </si>
   <si>
-    <t>%{count} ieraksti</t>
-  </si>
-  <si>
     <t>admin.Resources found.many</t>
   </si>
   <si>
     <t>admin.Resources found.one</t>
   </si>
   <si>
+    <t>%{count} ieraksts</t>
+  </si>
+  <si>
     <t>%{count} record</t>
   </si>
   <si>
-    <t>%{count} ieraksts</t>
-  </si>
-  <si>
     <t>admin.Resources found.other</t>
   </si>
   <si>
@@ -618,96 +618,111 @@
     <t>admin.Save</t>
   </si>
   <si>
+    <t>Saglabāt</t>
+  </si>
+  <si>
     <t>Save</t>
   </si>
   <si>
-    <t>Saglabāt</t>
-  </si>
-  <si>
     <t>admin.Save and create another</t>
   </si>
   <si>
+    <t>Saglabāt un izveidot jaunu</t>
+  </si>
+  <si>
     <t>Save and create another</t>
   </si>
   <si>
-    <t>Saglabāt un izveidot jaunu</t>
-  </si>
-  <si>
     <t>admin.Search</t>
   </si>
   <si>
+    <t>Meklēt</t>
+  </si>
+  <si>
     <t>Search</t>
   </si>
   <si>
-    <t>Meklēt</t>
+    <t>admin.sessions.Email</t>
   </si>
   <si>
     <t>admin.sessions.Password</t>
   </si>
   <si>
+    <t>admin.sessions.Sign in</t>
+  </si>
+  <si>
+    <t>Pieslēgties</t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
     <t>admin.Sign out</t>
   </si>
   <si>
+    <t>Izrakstīties</t>
+  </si>
+  <si>
     <t>Sign out</t>
   </si>
   <si>
-    <t>Izrakstīties</t>
-  </si>
-  <si>
     <t>admin.Switch locale</t>
   </si>
   <si>
+    <t>Pārslēgt valodu</t>
+  </si>
+  <si>
     <t>Switch locale</t>
   </si>
   <si>
-    <t>Pārslēgt valodu</t>
-  </si>
-  <si>
     <t>admin.Tools</t>
   </si>
   <si>
+    <t>Rīki</t>
+  </si>
+  <si>
     <t>Tools</t>
   </si>
   <si>
-    <t>Rīki</t>
-  </si>
-  <si>
     <t>admin.Yes</t>
   </si>
   <si>
+    <t>Jā</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Jā</t>
+    <t>devise.failure.unauthenticated</t>
   </si>
   <si>
     <t>devise.sessions.signed_in</t>
   </si>
   <si>
+    <t>Pierakstījies</t>
+  </si>
+  <si>
     <t>Signed in</t>
   </si>
   <si>
-    <t>Pierakstījies</t>
-  </si>
-  <si>
     <t>devise.sessions.signed_out</t>
   </si>
   <si>
+    <t>Izrakstījies</t>
+  </si>
+  <si>
     <t>Signed out</t>
   </si>
   <si>
-    <t>Izrakstījies</t>
-  </si>
-  <si>
     <t>errors.messages.blank</t>
   </si>
   <si>
+    <t>Lūdzu, aizpildiet atzīmēto lauku</t>
+  </si>
+  <si>
     <t>Blank</t>
   </si>
   <si>
-    <t>Lūdzu, aizpildiet atzīmēto lauku</t>
-  </si>
-  <si>
     <t>locales.en</t>
   </si>
   <si>
@@ -729,48 +744,48 @@
     <t>notices.admin.copy succeeded</t>
   </si>
   <si>
+    <t>Ieraksts nokopēts</t>
+  </si>
+  <si>
     <t>Copy succeeded</t>
   </si>
   <si>
-    <t>Ieraksts nokopēts</t>
-  </si>
-  <si>
     <t>notices.admin.create succeeded</t>
   </si>
   <si>
+    <t>Ieraksts izveidots</t>
+  </si>
+  <si>
     <t>Create succeeded</t>
   </si>
   <si>
-    <t>Ieraksts izveidots</t>
-  </si>
-  <si>
     <t>notices.admin.destroy succeeded</t>
   </si>
   <si>
+    <t>Ieraksts izdzēsts</t>
+  </si>
+  <si>
     <t>Destroy succeeded</t>
   </si>
   <si>
-    <t>Ieraksts izdzēsts</t>
-  </si>
-  <si>
     <t>notices.admin.move succeeded</t>
   </si>
   <si>
+    <t>Ieraksts pārvietots</t>
+  </si>
+  <si>
     <t>Move succeeded</t>
   </si>
   <si>
-    <t>Ieraksts pārvietots</t>
-  </si>
-  <si>
     <t>notices.admin.releaf_i18n_database_translations.update succeeded</t>
   </si>
   <si>
+    <t>Tulkojumi saglabāti</t>
+  </si>
+  <si>
     <t>Update succeeded</t>
   </si>
   <si>
-    <t>Tulkojumi saglabāti</t>
-  </si>
-  <si>
     <t>notices.admin.update succeeded</t>
   </si>
   <si>
@@ -780,26 +795,32 @@
     <t>pagination.Next page</t>
   </si>
   <si>
+    <t>Nākamā lapa</t>
+  </si>
+  <si>
     <t>Next page</t>
   </si>
   <si>
-    <t>Nākamā lapa</t>
-  </si>
-  <si>
     <t>pagination.Previous page</t>
   </si>
   <si>
+    <t>Iepriekšējā lapa</t>
+  </si>
+  <si>
     <t>Previous page</t>
   </si>
   <si>
-    <t>Iepriekšējā lapa</t>
+    <t>Neautorizējies</t>
+  </si>
+  <si>
+    <t>Unauthenticated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -808,6 +829,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Arial"/>
       <family val="1"/>
     </font>
@@ -829,14 +864,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1166,17 +1205,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1569,10 +1608,10 @@
         <v>103</v>
       </c>
       <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
         <v>104</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1591,21 +1630,21 @@
         <v>108</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
         <v>111</v>
-      </c>
-      <c r="B39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1613,10 +1652,10 @@
         <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1668,10 +1707,10 @@
         <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1833,10 +1872,10 @@
         <v>167</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1965,10 +2004,10 @@
         <v>196</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C72" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2009,10 +2048,10 @@
         <v>207</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2020,201 +2059,235 @@
         <v>208</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" t="s">
         <v>211</v>
-      </c>
-      <c r="B78" t="s">
-        <v>212</v>
-      </c>
-      <c r="C78" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" t="s">
+        <v>213</v>
+      </c>
+      <c r="C79" t="s">
         <v>214</v>
-      </c>
-      <c r="B79" t="s">
-        <v>215</v>
-      </c>
-      <c r="C79" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>215</v>
+      </c>
+      <c r="B80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C80" t="s">
         <v>217</v>
-      </c>
-      <c r="B80" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" t="s">
         <v>220</v>
-      </c>
-      <c r="B81" t="s">
-        <v>221</v>
-      </c>
-      <c r="C81" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>221</v>
+      </c>
+      <c r="B82" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" t="s">
         <v>223</v>
-      </c>
-      <c r="B82" t="s">
-        <v>224</v>
-      </c>
-      <c r="C82" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B83" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="C83" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B84" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C84" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B85" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C85" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" t="s">
         <v>233</v>
-      </c>
-      <c r="B86" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>234</v>
+      </c>
+      <c r="B87" t="s">
         <v>235</v>
       </c>
-      <c r="B87" t="s">
-        <v>236</v>
-      </c>
       <c r="C87" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B88" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C88" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B89" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C89" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B90" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C90" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B91" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C91" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B92" t="s">
+        <v>247</v>
+      </c>
+      <c r="C92" t="s">
         <v>248</v>
-      </c>
-      <c r="C92" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C93" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>252</v>
+      </c>
+      <c r="B94" t="s">
+        <v>253</v>
+      </c>
+      <c r="C94" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
         <v>255</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>256</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
         <v>257</v>
+      </c>
+      <c r="B96" t="s">
+        <v>258</v>
+      </c>
+      <c r="C96" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>260</v>
+      </c>
+      <c r="B97" t="s">
+        <v>261</v>
+      </c>
+      <c r="C97" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/releaf-i18n_database/misc/translations.xlsx
+++ b/releaf-i18n_database/misc/translations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="279">
   <si>
     <t/>
   </si>
@@ -240,45 +240,30 @@
     <t>Add item</t>
   </si>
   <si>
-    <t>admin.admin_nodes.Add child</t>
-  </si>
-  <si>
     <t>Jauna apakšsadaļa</t>
   </si>
   <si>
     <t>Add child</t>
   </si>
   <si>
-    <t>admin.admin_nodes.After</t>
-  </si>
-  <si>
     <t>Pēc</t>
   </si>
   <si>
     <t>After</t>
   </si>
   <si>
-    <t>admin.admin_nodes.First</t>
-  </si>
-  <si>
     <t>Pirmais</t>
   </si>
   <si>
     <t>First</t>
   </si>
   <si>
-    <t>admin.admin_nodes.Select content type of new node</t>
-  </si>
-  <si>
     <t>Izvēlaties satura veidu</t>
   </si>
   <si>
     <t>Select content type of new node</t>
   </si>
   <si>
-    <t>admin.admin_nodes.Suggest slug</t>
-  </si>
-  <si>
     <t>Ieteikt saiti</t>
   </si>
   <si>
@@ -522,24 +507,15 @@
     <t>Ok</t>
   </si>
   <si>
-    <t>admin.releaf_i18n_database_translations.edit translations</t>
-  </si>
-  <si>
     <t>Rediģēšana</t>
   </si>
   <si>
-    <t>admin.releaf_i18n_database_translations.export</t>
-  </si>
-  <si>
     <t>Eksportēt</t>
   </si>
   <si>
     <t>Export</t>
   </si>
   <si>
-    <t>admin.releaf_i18n_database_translations.import</t>
-  </si>
-  <si>
     <t>Importēt</t>
   </si>
   <si>
@@ -582,9 +558,6 @@
     <t>Remove</t>
   </si>
   <si>
-    <t>admin.Remove item</t>
-  </si>
-  <si>
     <t>admin.Resources found.few</t>
   </si>
   <si>
@@ -814,6 +787,75 @@
   </si>
   <si>
     <t>Unauthenticated</t>
+  </si>
+  <si>
+    <t>admin.After</t>
+  </si>
+  <si>
+    <t>admin.First</t>
+  </si>
+  <si>
+    <t>admin.releaf_content_nodes.Select content type of new node</t>
+  </si>
+  <si>
+    <t>admin.releaf_content_nodes.Suggest slug</t>
+  </si>
+  <si>
+    <t>admin.releaf_content_nodes.Add child</t>
+  </si>
+  <si>
+    <t>notices.admin.releaf_i18n_database_translations.successfuly imported %{count} translations</t>
+  </si>
+  <si>
+    <t>Veiksmīgi ieimportēti %{count} tulkojumi</t>
+  </si>
+  <si>
+    <t>Successfuly imported %{count} translations</t>
+  </si>
+  <si>
+    <t>admin.releaf_i18n_database_translations.Export</t>
+  </si>
+  <si>
+    <t>admin.releaf_i18n_database_translations.Import</t>
+  </si>
+  <si>
+    <t>admin.releaf_i18n_database_translations.Edit translations</t>
+  </si>
+  <si>
+    <t>errors.messages.confirmation</t>
+  </si>
+  <si>
+    <t>Nesakritība</t>
+  </si>
+  <si>
+    <t>Confirmation error</t>
+  </si>
+  <si>
+    <t>errors.messages.invalid</t>
+  </si>
+  <si>
+    <t>Neatbilstoša vērtība</t>
+  </si>
+  <si>
+    <t>Invalid value</t>
+  </si>
+  <si>
+    <t>errors.messages.taken</t>
+  </si>
+  <si>
+    <t>Šāda vērtība jau eksistē</t>
+  </si>
+  <si>
+    <t>This value is already taken</t>
+  </si>
+  <si>
+    <t>errors.messages.too_short</t>
+  </si>
+  <si>
+    <t>Pārāk īsa</t>
+  </si>
+  <si>
+    <t>Too short</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1495,139 +1537,139 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>74</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
         <v>76</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
         <v>34</v>
@@ -1638,21 +1680,21 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
@@ -1660,29 +1702,29 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
         <v>68</v>
@@ -1693,21 +1735,21 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
         <v>38</v>
@@ -1715,574 +1757,618 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B68" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C74" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B75" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B78" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C81" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B82" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="C82" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B83" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C84" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="B85" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="C85" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="B86" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="C86" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="B87" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="C87" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="B88" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="C88" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C89" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C90" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C91" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B92" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C92" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="B93" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C93" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B94" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C94" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B95" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C95" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B96" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C96" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B97" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C97" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>243</v>
+      </c>
+      <c r="B98" t="s">
+        <v>244</v>
+      </c>
+      <c r="C98" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>246</v>
+      </c>
+      <c r="B99" t="s">
+        <v>247</v>
+      </c>
+      <c r="C99" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>248</v>
+      </c>
+      <c r="B100" t="s">
+        <v>249</v>
+      </c>
+      <c r="C100" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>251</v>
+      </c>
+      <c r="B101" t="s">
+        <v>252</v>
+      </c>
+      <c r="C101" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
